--- a/Excelchips.xlsx
+++ b/Excelchips.xlsx
@@ -5,20 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08b114794d6d5cd6/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08b114794d6d5cd6/Documentos/UnB-Matérias/Progamação-APC/Painel-APC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6833194-90FC-49B3-BA0A-490A20268251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C6833194-90FC-49B3-BA0A-490A20268251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A314DB0-1246-4FA0-8533-44E6D6C1D8C7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{64013530-ECDC-4310-9DA1-02883C7D3E68}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,19 +155,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Planilha1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,9 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E30B2CF-2EFE-4A71-B67F-CB68D0348D36}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -490,12 +472,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <f>DATE(2020,3,12)</f>
         <v>43902</v>
       </c>
       <c r="C1" s="1">
+        <f>DATE(2020,4,22)</f>
         <v>43943</v>
       </c>
       <c r="D1" s="1">
+        <f>DATE(2020,6,1)</f>
         <v>43983</v>
       </c>
       <c r="E1" t="s">

--- a/Excelchips.xlsx
+++ b/Excelchips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08b114794d6d5cd6/Documentos/UnB-Matérias/Progamação-APC/Painel-APC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C6833194-90FC-49B3-BA0A-490A20268251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A314DB0-1246-4FA0-8533-44E6D6C1D8C7}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{C6833194-90FC-49B3-BA0A-490A20268251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347127F4-475A-4C54-87E1-EB72EFB87B99}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{64013530-ECDC-4310-9DA1-02883C7D3E68}"/>
   </bookViews>
@@ -456,7 +456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E30B2CF-2EFE-4A71-B67F-CB68D0348D36}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -472,15 +474,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <f>DATE(2020,3,12)</f>
         <v>43902</v>
       </c>
       <c r="C1" s="1">
-        <f>DATE(2020,4,22)</f>
         <v>43943</v>
       </c>
       <c r="D1" s="1">
-        <f>DATE(2020,6,1)</f>
         <v>43983</v>
       </c>
       <c r="E1" t="s">

--- a/Excelchips.xlsx
+++ b/Excelchips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08b114794d6d5cd6/Documentos/UnB-Matérias/Progamação-APC/Painel-APC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{C6833194-90FC-49B3-BA0A-490A20268251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347127F4-475A-4C54-87E1-EB72EFB87B99}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{C6833194-90FC-49B3-BA0A-490A20268251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30501DFA-9860-4CF4-B737-249564726D14}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{64013530-ECDC-4310-9DA1-02883C7D3E68}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Categoria</t>
   </si>
@@ -93,13 +93,22 @@
   </si>
   <si>
     <t>3.536, 70</t>
+  </si>
+  <si>
+    <t>12_03_2020</t>
+  </si>
+  <si>
+    <t>22_04_2020</t>
+  </si>
+  <si>
+    <t>01_06_2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +118,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,12 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +475,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,14 +491,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>43902</v>
-      </c>
-      <c r="C1" s="1">
-        <v>43943</v>
-      </c>
-      <c r="D1" s="1">
-        <v>43983</v>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -635,12 +653,13 @@
       <c r="D10">
         <v>1255.0999999999999</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excelchips.xlsx
+++ b/Excelchips.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08b114794d6d5cd6/Documentos/UnB-Matérias/Progamação-APC/Painel-APC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C1ACA8B2390F6ACC15813A2BF8D587CDA442F9BA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DE394ED-46ED-467A-B0D8-307B2BCB1B94}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>Categoria</t>
   </si>
@@ -28,65 +34,47 @@
     <t>01_06_2020</t>
   </si>
   <si>
-    <t>Balanço do período</t>
-  </si>
-  <si>
     <t>Console de videogame</t>
   </si>
   <si>
-    <t>alta de 32%</t>
-  </si>
-  <si>
     <t>Filmadora</t>
   </si>
   <si>
-    <t>alta de 29%</t>
-  </si>
-  <si>
     <t>Impressora multifuncional</t>
   </si>
   <si>
-    <t>alta de 20%</t>
-  </si>
-  <si>
     <t>Fone de ouvido e headset</t>
   </si>
   <si>
-    <t>alta de 15%</t>
-  </si>
-  <si>
     <t>Câmera digital</t>
   </si>
   <si>
-    <t>alta de 11%</t>
-  </si>
-  <si>
     <t>Smart speaker</t>
   </si>
   <si>
     <t>PC/Computador</t>
   </si>
   <si>
-    <t>alta de 7%</t>
-  </si>
-  <si>
     <t>Notebook</t>
   </si>
   <si>
-    <t>alta de 9%</t>
-  </si>
-  <si>
     <t>Home Theater</t>
   </si>
   <si>
-    <t>alta de 3%</t>
+    <t>Datas</t>
+  </si>
+  <si>
+    <t>Preço</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,11 +90,11 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,41 +121,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -178,10 +163,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -219,71 +204,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -311,7 +296,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -334,11 +319,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -347,13 +332,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -363,7 +348,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -372,7 +357,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -381,7 +366,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -389,10 +374,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -457,194 +442,330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A06CB2C-0ADA-4618-A54E-25E7D44E334C}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1546.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1773.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2040.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>1546.12</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1773.98</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2040.04</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1840.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1842.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2377.7600000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>764.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>682.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>915.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
-        <v>1840.78</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1842.92</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2377.76</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>182.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>209.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3536.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3399.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3935.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>764.99</v>
-      </c>
-      <c r="C4" s="3">
-        <v>682.59</v>
-      </c>
-      <c r="D4" s="3">
-        <v>915.17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>294.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>349.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>326.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2687.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2997.63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2508.0700000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>182.93</v>
-      </c>
-      <c r="C5" s="4">
-        <v>205</v>
-      </c>
-      <c r="D5" s="3">
-        <v>209.69</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2916.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3024.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3177.07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3536.7</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3399.9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3935.95</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <v>294.05</v>
-      </c>
-      <c r="C7" s="3">
-        <v>349.17</v>
-      </c>
-      <c r="D7" s="3">
-        <v>326.56</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2687.54</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2997.63</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2508.07</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2916.98</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3024.29</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3177.07</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1216.41</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1216.4100000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
         <v>1085.57</v>
       </c>
-      <c r="D10" s="3">
-        <v>1255.1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>21</v>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1255.0999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>